--- a/data_year/zb/科技/中国科协系统科技活动情况/中国科协系统国际民间科技交流活动.xlsx
+++ b/data_year/zb/科技/中国科协系统科技活动情况/中国科协系统国际民间科技交流活动.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,268 +538,134 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40363</v>
+        <v>45517</v>
       </c>
       <c r="C2" t="n">
-        <v>3608</v>
+        <v>4034</v>
       </c>
       <c r="D2" t="n">
-        <v>17380</v>
+        <v>17420</v>
       </c>
       <c r="E2" t="n">
-        <v>1939</v>
+        <v>2225</v>
       </c>
       <c r="F2" t="n">
-        <v>13747</v>
+        <v>19588</v>
       </c>
       <c r="G2" t="n">
-        <v>1035</v>
+        <v>1274</v>
       </c>
       <c r="H2" t="n">
-        <v>4538</v>
+        <v>5256</v>
       </c>
       <c r="I2" t="n">
-        <v>431</v>
+        <v>543</v>
       </c>
       <c r="J2" t="n">
-        <v>32154</v>
+        <v>35925</v>
       </c>
       <c r="K2" t="n">
-        <v>2884</v>
+        <v>3261</v>
       </c>
       <c r="L2" t="n">
-        <v>13910</v>
+        <v>13447</v>
       </c>
       <c r="M2" t="n">
-        <v>1457</v>
+        <v>1767</v>
       </c>
       <c r="N2" t="n">
-        <v>18407</v>
+        <v>16337</v>
       </c>
       <c r="O2" t="n">
-        <v>1849</v>
+        <v>1987</v>
       </c>
       <c r="P2" t="n">
-        <v>9372</v>
+        <v>8191</v>
       </c>
       <c r="Q2" t="n">
-        <v>1026</v>
+        <v>1224</v>
       </c>
       <c r="R2" t="n">
-        <v>8209</v>
+        <v>9592</v>
       </c>
       <c r="S2" t="n">
-        <v>724</v>
+        <v>773</v>
       </c>
       <c r="T2" t="n">
-        <v>3470</v>
+        <v>3973</v>
       </c>
       <c r="U2" t="n">
-        <v>482</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35937</v>
+        <v>53984</v>
       </c>
       <c r="C3" t="n">
-        <v>3932</v>
+        <v>4376</v>
       </c>
       <c r="D3" t="n">
-        <v>17080</v>
+        <v>21985</v>
       </c>
       <c r="E3" t="n">
-        <v>2154</v>
+        <v>2654</v>
       </c>
       <c r="F3" t="n">
-        <v>11931</v>
+        <v>19784</v>
       </c>
       <c r="G3" t="n">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="H3" t="n">
-        <v>4704</v>
+        <v>6421</v>
       </c>
       <c r="I3" t="n">
-        <v>557</v>
+        <v>604</v>
       </c>
       <c r="J3" t="n">
-        <v>26884</v>
+        <v>39165</v>
       </c>
       <c r="K3" t="n">
-        <v>3160</v>
+        <v>3481</v>
       </c>
       <c r="L3" t="n">
-        <v>12769</v>
+        <v>16875</v>
       </c>
       <c r="M3" t="n">
-        <v>1663</v>
+        <v>2159</v>
       </c>
       <c r="N3" t="n">
-        <v>14953</v>
+        <v>19381</v>
       </c>
       <c r="O3" t="n">
-        <v>1958</v>
+        <v>2284</v>
       </c>
       <c r="P3" t="n">
-        <v>8065</v>
+        <v>10454</v>
       </c>
       <c r="Q3" t="n">
-        <v>1106</v>
+        <v>1555</v>
       </c>
       <c r="R3" t="n">
-        <v>9053</v>
+        <v>14819</v>
       </c>
       <c r="S3" t="n">
-        <v>772</v>
+        <v>895</v>
       </c>
       <c r="T3" t="n">
-        <v>4311</v>
+        <v>5110</v>
       </c>
       <c r="U3" t="n">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>45517</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4034</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17420</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2225</v>
-      </c>
-      <c r="F4" t="n">
-        <v>19588</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1274</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5256</v>
-      </c>
-      <c r="I4" t="n">
-        <v>543</v>
-      </c>
-      <c r="J4" t="n">
-        <v>35925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3261</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13447</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1767</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16337</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1987</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8191</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1224</v>
-      </c>
-      <c r="R4" t="n">
-        <v>9592</v>
-      </c>
-      <c r="S4" t="n">
-        <v>773</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3973</v>
-      </c>
-      <c r="U4" t="n">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>53984</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4376</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21985</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2654</v>
-      </c>
-      <c r="F5" t="n">
-        <v>19784</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1197</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6421</v>
-      </c>
-      <c r="I5" t="n">
-        <v>604</v>
-      </c>
-      <c r="J5" t="n">
-        <v>39165</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3481</v>
-      </c>
-      <c r="L5" t="n">
-        <v>16875</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2159</v>
-      </c>
-      <c r="N5" t="n">
-        <v>19381</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2284</v>
-      </c>
-      <c r="P5" t="n">
-        <v>10454</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1555</v>
-      </c>
-      <c r="R5" t="n">
-        <v>14819</v>
-      </c>
-      <c r="S5" t="n">
-        <v>895</v>
-      </c>
-      <c r="T5" t="n">
-        <v>5110</v>
-      </c>
-      <c r="U5" t="n">
         <v>495</v>
       </c>
     </row>
